--- a/nih.xlsx
+++ b/nih.xlsx
@@ -53,7 +53,7 @@
     <x:t>s</x:t>
   </x:si>
   <x:si>
-    <x:t>=SUM(S47:S49)</x:t>
+    <x:t>=SUM(T47:T49)</x:t>
   </x:si>
   <x:si>
     <x:t>SUM(_47:_49)</x:t>
@@ -62,7 +62,7 @@
     <x:t>SMS Operating Revenue</x:t>
   </x:si>
   <x:si>
-    <x:t>=SUM(S46,S50)</x:t>
+    <x:t>=SUM(T46,T50)</x:t>
   </x:si>
   <x:si>
     <x:t>SUM(_46,_50)</x:t>
@@ -80,7 +80,7 @@
     <x:t>SMS Total Cost</x:t>
   </x:si>
   <x:si>
-    <x:t>=SUM(S53:S54)*-1</x:t>
+    <x:t>=SUM(T53:T54)*-1</x:t>
   </x:si>
   <x:si>
     <x:t>SUM(_53:_54)*-1</x:t>
@@ -116,7 +116,7 @@
     <x:t>SAM Total Cost</x:t>
   </x:si>
   <x:si>
-    <x:t>=SUM(S62:S63)*-1</x:t>
+    <x:t>=SUM(T62:T63)*-1</x:t>
   </x:si>
   <x:si>
     <x:t>SUM(_62:_63)*-1</x:t>
@@ -146,7 +146,7 @@
     <x:t>SAMSEK Total Cost</x:t>
   </x:si>
   <x:si>
-    <x:t>=SUM(S70:S71)*-1</x:t>
+    <x:t>=SUM(T70:T71)*-1</x:t>
   </x:si>
   <x:si>
     <x:t>SUM(_70:_71)*-1</x:t>
